--- a/output.xlsx
+++ b/output.xlsx
@@ -10,13 +10,26 @@
     <sheet name="XYZ" sheetId="1" r:id="rId1"/>
     <sheet name="Types" sheetId="2" r:id="rId2"/>
     <sheet name="Groups" sheetId="3" r:id="rId3"/>
+    <sheet name="InternalConns" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="27">
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>miniD</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +56,48 @@
   </si>
   <si>
     <t>CCK</t>
+  </si>
+  <si>
+    <t>0.0,100,5,0,0,-10,2,2,0,1,2,4</t>
+  </si>
+  <si>
+    <t>0.34,200,5,0,0,-10,2,2,0,1,2,4</t>
+  </si>
+  <si>
+    <t>0.1,300,5,0,0,-10,2,2,0,1,2,4</t>
+  </si>
+  <si>
+    <t>0.34,400,5,0,0,-10,2,2,0,1,2,4</t>
+  </si>
+  <si>
+    <t>0.34,500,5,0,0,-10,2,2,0,1,2,4</t>
+  </si>
+  <si>
+    <t>0.34,600,5,0,0,-10,2,2,0,1,2,4</t>
+  </si>
+  <si>
+    <t>0.28,100,5,0,0,-10,2,2,0,1,2,4</t>
+  </si>
+  <si>
+    <t>0.0,200,5,0,0,-10,2,2,0,1,2,4</t>
+  </si>
+  <si>
+    <t>0.0,300,5,0,0,-10,2,2,0,1,2,4</t>
+  </si>
+  <si>
+    <t>0.0,400,5,0,0,-10,2,2,0,1,2,4</t>
+  </si>
+  <si>
+    <t>0.0,500,5,0,0,-10,2,2,0,1,2,4</t>
+  </si>
+  <si>
+    <t>0.0,600,5,0,0,-10,2,2,0,1,2,4</t>
+  </si>
+  <si>
+    <t>0.4,100,5,0,0,-10,2,2,0,1,2,4</t>
+  </si>
+  <si>
+    <t>0.1,200,5,0,0,-10,2,2,0,1,2,4</t>
   </si>
 </sst>
 </file>
@@ -374,87 +429,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="B1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="2:5">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -472,13 +464,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -486,7 +478,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1707</v>
@@ -497,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>170</v>
@@ -508,7 +500,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>21</v>
@@ -519,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>128</v>
@@ -530,7 +522,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>54</v>
@@ -541,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>54</v>
@@ -562,13 +554,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -576,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>1707</v>
@@ -587,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>170</v>
@@ -598,7 +590,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>21</v>
@@ -609,7 +601,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>128</v>
@@ -620,7 +612,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>54</v>
@@ -631,10 +623,181 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C7">
         <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
